--- a/code/charttest.xlsx
+++ b/code/charttest.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PieChart" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="barchart" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -123,238 +122,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Pie sold by category</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <pieChart>
-        <varyColors val="1"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <cat>
-            <numRef>
-              <f>'PieChart'!$A$2</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'PieChart'!$B$2</f>
-            </numRef>
-          </val>
-        </ser>
-        <firstSliceAng val="0"/>
-      </pieChart>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="15"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>Bar</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'barchart'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'barchart'!$B$2:$B$5</f>
-            </numRef>
-          </val>
-        </ser>
-        <ser>
-          <idx val="1"/>
-          <order val="1"/>
-          <spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'barchart'!$A$2:$A$5</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'barchart'!$C$2:$C$5</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>batch</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>0</col>
-      <colOff>0</colOff>
-      <row>14</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <oneCellAnchor>
-    <from>
-      <col>1</col>
-      <colOff>0</colOff>
-      <row>4</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5400000" cy="2700000"/>
-    <graphicFrame>
-      <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
-        <cNvGraphicFramePr/>
-      </nvGraphicFramePr>
-      <xfrm/>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </graphicFrame>
-    <clientData/>
-  </oneCellAnchor>
-</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -641,12 +408,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -655,140 +422,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>pie</t>
-        </is>
+      <c r="A1" t="n">
+        <v>1</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sold</t>
-        </is>
+      <c r="B1" t="n">
+        <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Apple</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Cherry</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pumpkin</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Chocolate</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>40</v>
+      <c r="C1" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Num</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Batch_1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>batch_2</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>2</v>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>